--- a/input/raw_data/final_report/included_paper_data_final.xlsx
+++ b/input/raw_data/final_report/included_paper_data_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658B6A18-4E1A-F24F-8A66-6E3EE97C543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2E17A4-94E7-6645-9829-AA10AEC5A5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20540" yWindow="13080" windowWidth="20580" windowHeight="12240" xr2:uid="{9048CFBC-1539-6C42-8D80-67261DE2789D}"/>
+    <workbookView xWindow="20580" yWindow="900" windowWidth="20560" windowHeight="24440" xr2:uid="{9048CFBC-1539-6C42-8D80-67261DE2789D}"/>
   </bookViews>
   <sheets>
     <sheet name="included_paper_data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="839">
   <si>
     <t>Study_ID</t>
   </si>
@@ -682,9 +682,6 @@
     <t>Hernandez, Patricia V.; Snyder, Diana L.; Ghorab, Saba; Patel, Neej J.; Hinni, Michael L.; Horsley-Silva, Jennifer L.</t>
   </si>
   <si>
-    <t>Removal of a large stone in¬†the upper thoracic esophagus</t>
-  </si>
-  <si>
     <t>Mayo Clinic Proceedings. Innovations, Quality &amp; Outcomes</t>
   </si>
   <si>
@@ -1399,9 +1396,6 @@
     <t>Vijaysadan, Viju; Perez, Maria; Kuo, David</t>
   </si>
   <si>
-    <t>Revisiting Swallowed Troubles: Intestinal Complications Caused by Two Magnets‚Äö√Ñ√ÆA Case Report, Review and Proposed Revision to the Algorithm for the Management of Foreign Body Ingestion</t>
-  </si>
-  <si>
     <t>The Journal of the American Board of Family Medicine</t>
   </si>
   <si>
@@ -2042,6 +2036,507 @@
   </si>
   <si>
     <t>Citekey</t>
+  </si>
+  <si>
+    <t>OSullivan_1996b</t>
+  </si>
+  <si>
+    <t>Losanoff_1997e</t>
+  </si>
+  <si>
+    <t>Losanoff_1996</t>
+  </si>
+  <si>
+    <t>Goldman_1998f</t>
+  </si>
+  <si>
+    <t>Csaky_1998e</t>
+  </si>
+  <si>
+    <t>Tupesis_2004f</t>
+  </si>
+  <si>
+    <t>Alao_2006i</t>
+  </si>
+  <si>
+    <t>Hunt_2007f</t>
+  </si>
+  <si>
+    <t>Gitlin_2007</t>
+  </si>
+  <si>
+    <t>Sakellaridis_2008f</t>
+  </si>
+  <si>
+    <t>Palta_2009c</t>
+  </si>
+  <si>
+    <t>Islam_2010f</t>
+  </si>
+  <si>
+    <t>Huang_2010k</t>
+  </si>
+  <si>
+    <t>Sobnach_2011f</t>
+  </si>
+  <si>
+    <t>Trgo_2012f</t>
+  </si>
+  <si>
+    <t>Tammana_2012j</t>
+  </si>
+  <si>
+    <t>Naji_2012f</t>
+  </si>
+  <si>
+    <t>Lee_2012l</t>
+  </si>
+  <si>
+    <t>Dipoce_2012e</t>
+  </si>
+  <si>
+    <t>Dalal_2013b</t>
+  </si>
+  <si>
+    <t>Yu_2014h</t>
+  </si>
+  <si>
+    <t>Tanrikulu_2015e</t>
+  </si>
+  <si>
+    <t>Wadhwa_2015e</t>
+  </si>
+  <si>
+    <t>Wnęk_2015f</t>
+  </si>
+  <si>
+    <t>Akay_2015f</t>
+  </si>
+  <si>
+    <t>Dunphy_2015l</t>
+  </si>
+  <si>
+    <t>Yildiz_2016e</t>
+  </si>
+  <si>
+    <t>Brezean_2016g</t>
+  </si>
+  <si>
+    <t>Peixoto_2017f</t>
+  </si>
+  <si>
+    <t>NhSenussi_2017</t>
+  </si>
+  <si>
+    <t>Volpi_2017i</t>
+  </si>
+  <si>
+    <t>Chahine_2017g</t>
+  </si>
+  <si>
+    <t>Chang_2017f</t>
+  </si>
+  <si>
+    <t>Gardner_2017h</t>
+  </si>
+  <si>
+    <t>TanimotoC._2018a</t>
+  </si>
+  <si>
+    <t>Riva_2018j</t>
+  </si>
+  <si>
+    <t>Cui_2018l</t>
+  </si>
+  <si>
+    <t>Robertson_2019</t>
+  </si>
+  <si>
+    <t>Thapa_2019f</t>
+  </si>
+  <si>
+    <t>Tromans_2019</t>
+  </si>
+  <si>
+    <t>Kumar_2019f</t>
+  </si>
+  <si>
+    <t>Jehangir_2019h</t>
+  </si>
+  <si>
+    <t>Ashman_2019f</t>
+  </si>
+  <si>
+    <t>Benoist_2019e</t>
+  </si>
+  <si>
+    <t>Gollol-Raju_2019i</t>
+  </si>
+  <si>
+    <t>Guinan_2019f</t>
+  </si>
+  <si>
+    <t>Mohammed_2020g</t>
+  </si>
+  <si>
+    <t>Wang_2020f</t>
+  </si>
+  <si>
+    <t>Zong_2020i</t>
+  </si>
+  <si>
+    <t>Kapalu_2020k</t>
+  </si>
+  <si>
+    <t>Al-Faham_2020k</t>
+  </si>
+  <si>
+    <t>Ali_2020f</t>
+  </si>
+  <si>
+    <t>Carius_2020f</t>
+  </si>
+  <si>
+    <t>Ghimire_2020f</t>
+  </si>
+  <si>
+    <t>Removal of a large stone in the upper thoracic esophagus</t>
+  </si>
+  <si>
+    <t>Hernandez_2020f</t>
+  </si>
+  <si>
+    <t>DelgadoSalazar_2020c</t>
+  </si>
+  <si>
+    <t>Tavallaei_2021f</t>
+  </si>
+  <si>
+    <t>Udemgba_2021f</t>
+  </si>
+  <si>
+    <t>Yang_2021f</t>
+  </si>
+  <si>
+    <t>Li_2021e</t>
+  </si>
+  <si>
+    <t>AlShaaibi_2021b</t>
+  </si>
+  <si>
+    <t>Berry_2021e</t>
+  </si>
+  <si>
+    <t>Dines_2021f</t>
+  </si>
+  <si>
+    <t>Zhao_2022e</t>
+  </si>
+  <si>
+    <t>Yadollahi_2022f</t>
+  </si>
+  <si>
+    <t>Yang_2022f</t>
+  </si>
+  <si>
+    <t>Lai_2022m</t>
+  </si>
+  <si>
+    <t>Sharma_2022e</t>
+  </si>
+  <si>
+    <t>Apikotoa_2022f</t>
+  </si>
+  <si>
+    <t>Ali_2022g</t>
+  </si>
+  <si>
+    <t>Bozorgmehr_2022f</t>
+  </si>
+  <si>
+    <t>Ghahremani_2022f</t>
+  </si>
+  <si>
+    <t>King_2023f</t>
+  </si>
+  <si>
+    <t>Tambakis_2023n</t>
+  </si>
+  <si>
+    <t>Rezazadeh_2023g</t>
+  </si>
+  <si>
+    <t>Kaazan_2023g</t>
+  </si>
+  <si>
+    <t>DivsalarP._2023a</t>
+  </si>
+  <si>
+    <t>Calini_2023k</t>
+  </si>
+  <si>
+    <t>Chauhan_2023f</t>
+  </si>
+  <si>
+    <t>Hardy_2023g</t>
+  </si>
+  <si>
+    <t>Das_2023f</t>
+  </si>
+  <si>
+    <t>Pham_2024f</t>
+  </si>
+  <si>
+    <t>Sultan_2024f</t>
+  </si>
+  <si>
+    <t>mariea.DangerousAppetite2024</t>
+  </si>
+  <si>
+    <t>Farhadi_2024h</t>
+  </si>
+  <si>
+    <t>Dranova_2024f</t>
+  </si>
+  <si>
+    <t>fjbuilsRepeatedBehaviorDeliberate2024</t>
+  </si>
+  <si>
+    <t>Bhumi_2024f</t>
+  </si>
+  <si>
+    <t>Johnson_1969</t>
+  </si>
+  <si>
+    <t>Witzel_1974</t>
+  </si>
+  <si>
+    <t>Devanesan_1977</t>
+  </si>
+  <si>
+    <t>James_1982</t>
+  </si>
+  <si>
+    <t>Roark_1983</t>
+  </si>
+  <si>
+    <t>Gracia_1984</t>
+  </si>
+  <si>
+    <t>Barros_1991</t>
+  </si>
+  <si>
+    <t>Karp_1991b</t>
+  </si>
+  <si>
+    <t>Tsui_1997</t>
+  </si>
+  <si>
+    <t>Beecroft_1998</t>
+  </si>
+  <si>
+    <t>Blaho_1998</t>
+  </si>
+  <si>
+    <t>Hindley_1999</t>
+  </si>
+  <si>
+    <t>Kamal_1999</t>
+  </si>
+  <si>
+    <t>Kumar_2001</t>
+  </si>
+  <si>
+    <t>Mosca_2001</t>
+  </si>
+  <si>
+    <t>Cauchi_2002</t>
+  </si>
+  <si>
+    <t>Weiland_2002</t>
+  </si>
+  <si>
+    <t>Dumaguing_2003</t>
+  </si>
+  <si>
+    <t>Oestreich_2004</t>
+  </si>
+  <si>
+    <t>Tay_2004</t>
+  </si>
+  <si>
+    <t>Vesna_2004</t>
+  </si>
+  <si>
+    <t>Liu_2005</t>
+  </si>
+  <si>
+    <t>Nagaraj_2005</t>
+  </si>
+  <si>
+    <t>Ohno_2005</t>
+  </si>
+  <si>
+    <t>Wildhaber_2005</t>
+  </si>
+  <si>
+    <t>Goh_2006b</t>
+  </si>
+  <si>
+    <t>Lee_2006</t>
+  </si>
+  <si>
+    <t>Ma_2006</t>
+  </si>
+  <si>
+    <t>Revisiting Swallowed Troubles: Intestinal Complications Caused by Two Magnets—A Case Report, Review and Proposed Revision to the Algorithm for the Management of Foreign Body Ingestion: Intestinal Complications Caused by Two Magnets‚ A Case Report, Review and Proposed Revision to the Algorithm for the Management of Foreign Body Ingestion</t>
+  </si>
+  <si>
+    <t>Vijaysadan_2006</t>
+  </si>
+  <si>
+    <t>Cox_2007</t>
+  </si>
+  <si>
+    <t>Fenton_2007</t>
+  </si>
+  <si>
+    <t>Lee_2007</t>
+  </si>
+  <si>
+    <t>Bhattacharjee_2008</t>
+  </si>
+  <si>
+    <t>Bisharat_2008e</t>
+  </si>
+  <si>
+    <t>Kariholu_2008</t>
+  </si>
+  <si>
+    <t>Rodríguez-Hermosa_2008</t>
+  </si>
+  <si>
+    <t>Prieto-Aldape_2009b</t>
+  </si>
+  <si>
+    <t>Saeed_2009</t>
+  </si>
+  <si>
+    <t>Yasin_2009</t>
+  </si>
+  <si>
+    <t>Brown_2010</t>
+  </si>
+  <si>
+    <t>Fry_2010</t>
+  </si>
+  <si>
+    <t>teWildt_2010</t>
+  </si>
+  <si>
+    <t>Siddiqui_2011</t>
+  </si>
+  <si>
+    <t>Atluri_2012a</t>
+  </si>
+  <si>
+    <t>Ataya_2013</t>
+  </si>
+  <si>
+    <t>Fine_2013</t>
+  </si>
+  <si>
+    <t>Kumar_2013</t>
+  </si>
+  <si>
+    <t>Li_2013</t>
+  </si>
+  <si>
+    <t>Misra_2013</t>
+  </si>
+  <si>
+    <t>Albeldawi_2014</t>
+  </si>
+  <si>
+    <t>Bhasin_2014</t>
+  </si>
+  <si>
+    <t>Kar_2015</t>
+  </si>
+  <si>
+    <t>Kobiela_2015</t>
+  </si>
+  <si>
+    <t>Atayan_2016</t>
+  </si>
+  <si>
+    <t>August_2016</t>
+  </si>
+  <si>
+    <t>Elghali_2016</t>
+  </si>
+  <si>
+    <t>Geraci_2016a</t>
+  </si>
+  <si>
+    <t>Mazek_2016</t>
+  </si>
+  <si>
+    <t>Obinwa_2016</t>
+  </si>
+  <si>
+    <t>Ali_2017</t>
+  </si>
+  <si>
+    <t>CamachoDorado_2018</t>
+  </si>
+  <si>
+    <t>Emamhadi_2018</t>
+  </si>
+  <si>
+    <t>Kerestes_2019</t>
+  </si>
+  <si>
+    <t>AlMuhsin_2021</t>
+  </si>
+  <si>
+    <t>Liu_2022</t>
+  </si>
+  <si>
+    <t>Mesfin_2022a</t>
+  </si>
+  <si>
+    <t>Sagvand_2022</t>
+  </si>
+  <si>
+    <t>Yan_2022</t>
+  </si>
+  <si>
+    <t>Anand_2023</t>
+  </si>
+  <si>
+    <t>Jin_2023</t>
+  </si>
+  <si>
+    <t>Ngu_2023</t>
+  </si>
+  <si>
+    <t>Qureshi_2016</t>
+  </si>
+  <si>
+    <t>Ishak_2023</t>
+  </si>
+  <si>
+    <t>Colapkulu_2024</t>
+  </si>
+  <si>
+    <t>Mezouari_2023b</t>
+  </si>
+  <si>
+    <t>Ken_1993</t>
+  </si>
+  <si>
+    <t>Schierling_2008</t>
   </si>
 </sst>
 </file>
@@ -2904,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D9C861-6E8A-1F44-8AE5-524FEEA61607}">
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2934,13 +3429,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -2963,10 +3458,13 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H2" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I2" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2989,10 +3487,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H3" t="s">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="I3" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3015,10 +3516,13 @@
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H4" t="s">
-        <v>627</v>
+        <v>625</v>
+      </c>
+      <c r="I4" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3041,10 +3545,13 @@
         <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I5" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3067,10 +3574,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H6" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I6" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -3093,10 +3603,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H7" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I7" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3119,10 +3632,13 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H8" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I8" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3145,10 +3661,13 @@
         <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H9" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I9" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3171,10 +3690,13 @@
         <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H10" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3197,10 +3719,13 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
+        <v>623</v>
+      </c>
+      <c r="H11" t="s">
         <v>625</v>
       </c>
-      <c r="H11" t="s">
-        <v>627</v>
+      <c r="I11" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3223,10 +3748,13 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H12" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I12" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3249,10 +3777,13 @@
         <v>53</v>
       </c>
       <c r="G13" t="s">
+        <v>623</v>
+      </c>
+      <c r="H13" t="s">
         <v>625</v>
       </c>
-      <c r="H13" t="s">
-        <v>627</v>
+      <c r="I13" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3275,10 +3806,13 @@
         <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H14" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I14" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3301,10 +3835,13 @@
         <v>61</v>
       </c>
       <c r="G15" t="s">
+        <v>623</v>
+      </c>
+      <c r="H15" t="s">
         <v>625</v>
       </c>
-      <c r="H15" t="s">
-        <v>627</v>
+      <c r="I15" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3327,13 +3864,16 @@
         <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H16" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I16" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>168</v>
       </c>
@@ -3353,13 +3893,16 @@
         <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H17" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I17" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>171</v>
       </c>
@@ -3379,13 +3922,16 @@
         <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H18" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I18" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>172</v>
       </c>
@@ -3405,13 +3951,16 @@
         <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H19" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>175</v>
       </c>
@@ -3431,13 +3980,16 @@
         <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H20" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="I20" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>182</v>
       </c>
@@ -3457,13 +4009,16 @@
         <v>83</v>
       </c>
       <c r="G21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H21" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="I21" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>192</v>
       </c>
@@ -3483,13 +4038,16 @@
         <v>87</v>
       </c>
       <c r="G22" t="s">
+        <v>623</v>
+      </c>
+      <c r="H22" t="s">
         <v>625</v>
       </c>
-      <c r="H22" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>195</v>
       </c>
@@ -3509,13 +4067,16 @@
         <v>91</v>
       </c>
       <c r="G23" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H23" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>214</v>
       </c>
@@ -3535,13 +4096,16 @@
         <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H24" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I24" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>217</v>
       </c>
@@ -3561,13 +4125,16 @@
         <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H25" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I25" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>219</v>
       </c>
@@ -3587,13 +4154,16 @@
         <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H26" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I26" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>226</v>
       </c>
@@ -3613,13 +4183,16 @@
         <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H27" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I27" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>231</v>
       </c>
@@ -3639,13 +4212,16 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H28" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>238</v>
       </c>
@@ -3665,13 +4241,16 @@
         <v>115</v>
       </c>
       <c r="G29" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H29" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I29" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>256</v>
       </c>
@@ -3691,13 +4270,16 @@
         <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H30" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I30" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>260</v>
       </c>
@@ -3717,13 +4299,16 @@
         <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H31" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I31" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>261</v>
       </c>
@@ -3743,13 +4328,16 @@
         <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H32" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I32" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>266</v>
       </c>
@@ -3769,13 +4357,16 @@
         <v>131</v>
       </c>
       <c r="G33" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I33" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>273</v>
       </c>
@@ -3795,13 +4386,16 @@
         <v>134</v>
       </c>
       <c r="G34" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H34" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I34" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>274</v>
       </c>
@@ -3821,13 +4415,16 @@
         <v>138</v>
       </c>
       <c r="G35" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H35" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>278</v>
       </c>
@@ -3847,13 +4444,16 @@
         <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H36" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I36" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>288</v>
       </c>
@@ -3873,13 +4473,16 @@
         <v>145</v>
       </c>
       <c r="G37" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H37" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I37" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>292</v>
       </c>
@@ -3899,13 +4502,16 @@
         <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H38" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I38" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>300</v>
       </c>
@@ -3925,13 +4531,16 @@
         <v>152</v>
       </c>
       <c r="G39" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H39" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I39" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>307</v>
       </c>
@@ -3951,13 +4560,16 @@
         <v>156</v>
       </c>
       <c r="G40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H40" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I40" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>311</v>
       </c>
@@ -3977,13 +4589,16 @@
         <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H41" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I41" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>312</v>
       </c>
@@ -4003,13 +4618,16 @@
         <v>164</v>
       </c>
       <c r="G42" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H42" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I42" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>314</v>
       </c>
@@ -4029,13 +4647,16 @@
         <v>168</v>
       </c>
       <c r="G43" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H43" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I43" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>319</v>
       </c>
@@ -4055,13 +4676,16 @@
         <v>172</v>
       </c>
       <c r="G44" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H44" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I44" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>321</v>
       </c>
@@ -4081,13 +4705,16 @@
         <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H45" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I45" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>322</v>
       </c>
@@ -4107,13 +4734,16 @@
         <v>180</v>
       </c>
       <c r="G46" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="H46" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I46" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>327</v>
       </c>
@@ -4133,13 +4763,16 @@
         <v>184</v>
       </c>
       <c r="G47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H47" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I47" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>328</v>
       </c>
@@ -4159,13 +4792,16 @@
         <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H48" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I48" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>333</v>
       </c>
@@ -4185,13 +4821,16 @@
         <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H49" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I49" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>336</v>
       </c>
@@ -4211,13 +4850,16 @@
         <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H50" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I50" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>342</v>
       </c>
@@ -4237,13 +4879,16 @@
         <v>199</v>
       </c>
       <c r="G51" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H51" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I51" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>345</v>
       </c>
@@ -4263,13 +4908,16 @@
         <v>203</v>
       </c>
       <c r="G52" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H52" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I52" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>348</v>
       </c>
@@ -4289,13 +4937,16 @@
         <v>207</v>
       </c>
       <c r="G53" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H53" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I53" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>349</v>
       </c>
@@ -4315,13 +4966,16 @@
         <v>211</v>
       </c>
       <c r="G54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H54" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I54" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>353</v>
       </c>
@@ -4341,13 +4995,16 @@
         <v>214</v>
       </c>
       <c r="G55" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H55" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I55" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>356</v>
       </c>
@@ -4367,13 +5024,16 @@
         <v>218</v>
       </c>
       <c r="G56" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H56" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I56" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>359</v>
       </c>
@@ -4384,22 +5044,25 @@
         <v>219</v>
       </c>
       <c r="D57" t="s">
+        <v>726</v>
+      </c>
+      <c r="E57" t="s">
         <v>220</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>221</v>
       </c>
-      <c r="F57" t="s">
-        <v>222</v>
-      </c>
       <c r="G57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H57" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I57" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>360</v>
       </c>
@@ -4407,25 +5070,28 @@
         <v>2020</v>
       </c>
       <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58" t="s">
         <v>223</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>224</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>225</v>
       </c>
-      <c r="F58" t="s">
-        <v>226</v>
-      </c>
       <c r="G58" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H58" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I58" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>369</v>
       </c>
@@ -4433,25 +5099,28 @@
         <v>2021</v>
       </c>
       <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="D59" t="s">
         <v>227</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>228</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>229</v>
       </c>
-      <c r="F59" t="s">
-        <v>230</v>
-      </c>
       <c r="G59" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H59" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I59" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>370</v>
       </c>
@@ -4459,25 +5128,28 @@
         <v>2021</v>
       </c>
       <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" t="s">
         <v>231</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>232</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>233</v>
       </c>
-      <c r="F60" t="s">
-        <v>234</v>
-      </c>
       <c r="G60" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H60" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I60" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>373</v>
       </c>
@@ -4485,25 +5157,28 @@
         <v>2021</v>
       </c>
       <c r="C61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" t="s">
         <v>235</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>236</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>237</v>
       </c>
-      <c r="F61" t="s">
-        <v>238</v>
-      </c>
       <c r="G61" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H61" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I61" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>377</v>
       </c>
@@ -4511,25 +5186,28 @@
         <v>2021</v>
       </c>
       <c r="C62" t="s">
+        <v>238</v>
+      </c>
+      <c r="D62" t="s">
         <v>239</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>240</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>241</v>
       </c>
-      <c r="F62" t="s">
-        <v>242</v>
-      </c>
       <c r="G62" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H62" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I62" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>380</v>
       </c>
@@ -4537,25 +5215,28 @@
         <v>2021</v>
       </c>
       <c r="C63" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" t="s">
         <v>243</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>244</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>245</v>
       </c>
-      <c r="F63" t="s">
-        <v>246</v>
-      </c>
       <c r="G63" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H63" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I63" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>382</v>
       </c>
@@ -4563,25 +5244,28 @@
         <v>2021</v>
       </c>
       <c r="C64" t="s">
+        <v>246</v>
+      </c>
+      <c r="D64" t="s">
         <v>247</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>248</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>249</v>
       </c>
-      <c r="F64" t="s">
-        <v>250</v>
-      </c>
       <c r="G64" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H64" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I64" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>386</v>
       </c>
@@ -4589,25 +5273,28 @@
         <v>2021</v>
       </c>
       <c r="C65" t="s">
+        <v>250</v>
+      </c>
+      <c r="D65" t="s">
         <v>251</v>
-      </c>
-      <c r="D65" t="s">
-        <v>252</v>
       </c>
       <c r="E65" t="s">
         <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H65" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I65" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>399</v>
       </c>
@@ -4615,25 +5302,28 @@
         <v>2022</v>
       </c>
       <c r="C66" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" t="s">
         <v>254</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>255</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>256</v>
       </c>
-      <c r="F66" t="s">
-        <v>257</v>
-      </c>
       <c r="G66" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H66" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I66" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>401</v>
       </c>
@@ -4641,25 +5331,28 @@
         <v>2022</v>
       </c>
       <c r="C67" t="s">
+        <v>257</v>
+      </c>
+      <c r="D67" t="s">
         <v>258</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
+        <v>248</v>
+      </c>
+      <c r="F67" t="s">
         <v>259</v>
       </c>
-      <c r="E67" t="s">
-        <v>249</v>
-      </c>
-      <c r="F67" t="s">
-        <v>260</v>
-      </c>
       <c r="G67" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H67" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I67" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>402</v>
       </c>
@@ -4667,25 +5360,28 @@
         <v>2022</v>
       </c>
       <c r="C68" t="s">
+        <v>260</v>
+      </c>
+      <c r="D68" t="s">
         <v>261</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>262</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>263</v>
       </c>
-      <c r="F68" t="s">
-        <v>264</v>
-      </c>
       <c r="G68" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H68" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I68" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>405</v>
       </c>
@@ -4693,25 +5389,28 @@
         <v>2022</v>
       </c>
       <c r="C69" t="s">
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
         <v>265</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>262</v>
+      </c>
+      <c r="F69" t="s">
         <v>266</v>
       </c>
-      <c r="E69" t="s">
-        <v>263</v>
-      </c>
-      <c r="F69" t="s">
-        <v>267</v>
-      </c>
       <c r="G69" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H69" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I69" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>406</v>
       </c>
@@ -4719,25 +5418,28 @@
         <v>2022</v>
       </c>
       <c r="C70" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" t="s">
         <v>268</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>269</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>270</v>
       </c>
-      <c r="F70" t="s">
-        <v>271</v>
-      </c>
       <c r="G70" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H70" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I70" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>409</v>
       </c>
@@ -4745,25 +5447,28 @@
         <v>2022</v>
       </c>
       <c r="C71" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" t="s">
         <v>272</v>
-      </c>
-      <c r="D71" t="s">
-        <v>273</v>
       </c>
       <c r="E71" t="s">
         <v>151</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G71" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H71" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I71" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>414</v>
       </c>
@@ -4771,25 +5476,28 @@
         <v>2022</v>
       </c>
       <c r="C72" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" t="s">
         <v>275</v>
-      </c>
-      <c r="D72" t="s">
-        <v>276</v>
       </c>
       <c r="E72" t="s">
         <v>210</v>
       </c>
       <c r="F72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G72" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H72" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I72" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>416</v>
       </c>
@@ -4797,25 +5505,28 @@
         <v>2022</v>
       </c>
       <c r="C73" t="s">
+        <v>277</v>
+      </c>
+      <c r="D73" t="s">
         <v>278</v>
-      </c>
-      <c r="D73" t="s">
-        <v>279</v>
       </c>
       <c r="E73" t="s">
         <v>206</v>
       </c>
       <c r="F73" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G73" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H73" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I73" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>421</v>
       </c>
@@ -4823,25 +5534,28 @@
         <v>2022</v>
       </c>
       <c r="C74" t="s">
+        <v>280</v>
+      </c>
+      <c r="D74" t="s">
         <v>281</v>
-      </c>
-      <c r="D74" t="s">
-        <v>282</v>
       </c>
       <c r="E74" t="s">
         <v>171</v>
       </c>
       <c r="F74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G74" t="s">
+        <v>623</v>
+      </c>
+      <c r="H74" t="s">
         <v>625</v>
       </c>
-      <c r="H74" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>431</v>
       </c>
@@ -4849,25 +5563,28 @@
         <v>2023</v>
       </c>
       <c r="C75" t="s">
+        <v>283</v>
+      </c>
+      <c r="D75" t="s">
         <v>284</v>
-      </c>
-      <c r="D75" t="s">
-        <v>285</v>
       </c>
       <c r="E75" t="s">
         <v>210</v>
       </c>
       <c r="F75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G75" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H75" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I75" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>432</v>
       </c>
@@ -4875,25 +5592,28 @@
         <v>2023</v>
       </c>
       <c r="C76" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" t="s">
         <v>287</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>288</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>289</v>
       </c>
-      <c r="F76" t="s">
-        <v>290</v>
-      </c>
       <c r="G76" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H76" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I76" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>439</v>
       </c>
@@ -4901,25 +5621,28 @@
         <v>2023</v>
       </c>
       <c r="C77" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" t="s">
         <v>291</v>
-      </c>
-      <c r="D77" t="s">
-        <v>292</v>
       </c>
       <c r="E77" t="s">
         <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G77" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H77" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I77" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>441</v>
       </c>
@@ -4927,25 +5650,28 @@
         <v>2023</v>
       </c>
       <c r="C78" t="s">
+        <v>293</v>
+      </c>
+      <c r="D78" t="s">
         <v>294</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>295</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>296</v>
       </c>
-      <c r="F78" t="s">
-        <v>297</v>
-      </c>
       <c r="G78" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H78" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I78" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>442</v>
       </c>
@@ -4953,25 +5679,28 @@
         <v>2023</v>
       </c>
       <c r="C79" t="s">
+        <v>297</v>
+      </c>
+      <c r="D79" t="s">
         <v>298</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>299</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>300</v>
       </c>
-      <c r="F79" t="s">
-        <v>301</v>
-      </c>
       <c r="G79" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H79" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I79" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>443</v>
       </c>
@@ -4979,25 +5708,28 @@
         <v>2023</v>
       </c>
       <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="D80" t="s">
         <v>302</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>303</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>304</v>
       </c>
-      <c r="F80" t="s">
-        <v>305</v>
-      </c>
       <c r="G80" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H80" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I80" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>450</v>
       </c>
@@ -5005,25 +5737,28 @@
         <v>2023</v>
       </c>
       <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
         <v>306</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>307</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>308</v>
       </c>
-      <c r="F81" t="s">
-        <v>309</v>
-      </c>
       <c r="G81" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H81" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I81" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>451</v>
       </c>
@@ -5031,25 +5766,28 @@
         <v>2023</v>
       </c>
       <c r="C82" t="s">
+        <v>309</v>
+      </c>
+      <c r="D82" t="s">
         <v>310</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>311</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>312</v>
       </c>
-      <c r="F82" t="s">
-        <v>313</v>
-      </c>
       <c r="G82" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H82" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I82" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>456</v>
       </c>
@@ -5057,25 +5795,28 @@
         <v>2023</v>
       </c>
       <c r="C83" t="s">
+        <v>313</v>
+      </c>
+      <c r="D83" t="s">
         <v>314</v>
-      </c>
-      <c r="D83" t="s">
-        <v>315</v>
       </c>
       <c r="E83" t="s">
         <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H83" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I83" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>460</v>
       </c>
@@ -5083,25 +5824,28 @@
         <v>2023</v>
       </c>
       <c r="C84" t="s">
+        <v>316</v>
+      </c>
+      <c r="D84" t="s">
         <v>317</v>
-      </c>
-      <c r="D84" t="s">
-        <v>318</v>
       </c>
       <c r="E84" t="s">
         <v>210</v>
       </c>
       <c r="F84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G84" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H84" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I84" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>461</v>
       </c>
@@ -5109,25 +5853,28 @@
         <v>2023</v>
       </c>
       <c r="C85" t="s">
+        <v>319</v>
+      </c>
+      <c r="D85" t="s">
         <v>320</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>321</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>322</v>
       </c>
-      <c r="F85" t="s">
-        <v>323</v>
-      </c>
       <c r="G85" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H85" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I85" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>465</v>
       </c>
@@ -5135,25 +5882,28 @@
         <v>2024</v>
       </c>
       <c r="C86" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" t="s">
         <v>324</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>325</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>326</v>
       </c>
-      <c r="F86" t="s">
-        <v>327</v>
-      </c>
       <c r="G86" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H86" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="I86" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>471</v>
       </c>
@@ -5161,25 +5911,28 @@
         <v>2024</v>
       </c>
       <c r="C87" t="s">
+        <v>327</v>
+      </c>
+      <c r="D87" t="s">
         <v>328</v>
-      </c>
-      <c r="D87" t="s">
-        <v>329</v>
       </c>
       <c r="E87" t="s">
         <v>151</v>
       </c>
       <c r="F87" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H87" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I87" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>475</v>
       </c>
@@ -5187,25 +5940,28 @@
         <v>2024</v>
       </c>
       <c r="C88" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" t="s">
         <v>331</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>332</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>333</v>
       </c>
-      <c r="F88" t="s">
-        <v>334</v>
-      </c>
       <c r="G88" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H88" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I88" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>476</v>
       </c>
@@ -5213,25 +5969,28 @@
         <v>2024</v>
       </c>
       <c r="C89" t="s">
+        <v>334</v>
+      </c>
+      <c r="D89" t="s">
         <v>335</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>336</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>337</v>
       </c>
-      <c r="F89" t="s">
-        <v>338</v>
-      </c>
       <c r="G89" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H89" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I89" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>482</v>
       </c>
@@ -5239,25 +5998,28 @@
         <v>2024</v>
       </c>
       <c r="C90" t="s">
+        <v>338</v>
+      </c>
+      <c r="D90" t="s">
         <v>339</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>340</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="F90" t="s">
-        <v>342</v>
-      </c>
       <c r="G90" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H90" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I90" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>483</v>
       </c>
@@ -5265,25 +6027,28 @@
         <v>2024</v>
       </c>
       <c r="C91" t="s">
+        <v>342</v>
+      </c>
+      <c r="D91" t="s">
         <v>343</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>344</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>345</v>
       </c>
-      <c r="F91" t="s">
-        <v>346</v>
-      </c>
       <c r="G91" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H91" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I91" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>484</v>
       </c>
@@ -5291,25 +6056,28 @@
         <v>2024</v>
       </c>
       <c r="C92" t="s">
+        <v>346</v>
+      </c>
+      <c r="D92" t="s">
         <v>347</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>348</v>
       </c>
-      <c r="E92" t="s">
-        <v>349</v>
-      </c>
       <c r="F92" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G92" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H92" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I92" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>485</v>
       </c>
@@ -5317,25 +6085,28 @@
         <v>2024</v>
       </c>
       <c r="C93" t="s">
+        <v>349</v>
+      </c>
+      <c r="D93" t="s">
         <v>350</v>
-      </c>
-      <c r="D93" t="s">
-        <v>351</v>
       </c>
       <c r="E93" t="s">
         <v>210</v>
       </c>
       <c r="F93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G93" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H93" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I93" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>495</v>
       </c>
@@ -5343,25 +6114,28 @@
         <v>1969</v>
       </c>
       <c r="C94" t="s">
+        <v>352</v>
+      </c>
+      <c r="D94" t="s">
         <v>353</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>354</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>355</v>
       </c>
-      <c r="F94" t="s">
-        <v>356</v>
-      </c>
       <c r="G94" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H94" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I94" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>498</v>
       </c>
@@ -5369,25 +6143,28 @@
         <v>1974</v>
       </c>
       <c r="C95" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" t="s">
         <v>357</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>358</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>359</v>
       </c>
-      <c r="F95" t="s">
-        <v>360</v>
-      </c>
       <c r="G95" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H95" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I95" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>499</v>
       </c>
@@ -5395,25 +6172,28 @@
         <v>1977</v>
       </c>
       <c r="C96" t="s">
+        <v>360</v>
+      </c>
+      <c r="D96" t="s">
         <v>361</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>362</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>363</v>
       </c>
-      <c r="F96" t="s">
-        <v>364</v>
-      </c>
       <c r="G96" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H96" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I96" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>504</v>
       </c>
@@ -5421,25 +6201,28 @@
         <v>1982</v>
       </c>
       <c r="C97" t="s">
+        <v>364</v>
+      </c>
+      <c r="D97" t="s">
         <v>365</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>366</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>367</v>
       </c>
-      <c r="F97" t="s">
-        <v>368</v>
-      </c>
       <c r="G97" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H97" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I97" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>507</v>
       </c>
@@ -5447,25 +6230,28 @@
         <v>1983</v>
       </c>
       <c r="C98" t="s">
+        <v>368</v>
+      </c>
+      <c r="D98" t="s">
         <v>369</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>370</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>371</v>
       </c>
-      <c r="F98" t="s">
-        <v>372</v>
-      </c>
       <c r="G98" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H98" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I98" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>509</v>
       </c>
@@ -5473,25 +6259,28 @@
         <v>1984</v>
       </c>
       <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="D99" t="s">
         <v>373</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>374</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>375</v>
       </c>
-      <c r="F99" t="s">
-        <v>376</v>
-      </c>
       <c r="G99" t="s">
+        <v>623</v>
+      </c>
+      <c r="H99" t="s">
         <v>625</v>
       </c>
-      <c r="H99" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>522</v>
       </c>
@@ -5499,25 +6288,28 @@
         <v>1991</v>
       </c>
       <c r="C100" t="s">
+        <v>376</v>
+      </c>
+      <c r="D100" t="s">
         <v>377</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>378</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>379</v>
       </c>
-      <c r="F100" t="s">
-        <v>380</v>
-      </c>
       <c r="G100" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H100" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I100" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>523</v>
       </c>
@@ -5525,25 +6317,28 @@
         <v>1991</v>
       </c>
       <c r="C101" t="s">
+        <v>380</v>
+      </c>
+      <c r="D101" t="s">
         <v>381</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>382</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>383</v>
       </c>
-      <c r="F101" t="s">
-        <v>384</v>
-      </c>
       <c r="G101" t="s">
+        <v>623</v>
+      </c>
+      <c r="H101" t="s">
         <v>625</v>
       </c>
-      <c r="H101" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>532</v>
       </c>
@@ -5551,25 +6346,28 @@
         <v>1997</v>
       </c>
       <c r="C102" t="s">
+        <v>384</v>
+      </c>
+      <c r="D102" t="s">
         <v>385</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>386</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>387</v>
       </c>
-      <c r="F102" t="s">
-        <v>388</v>
-      </c>
       <c r="G102" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H102" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I102" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>535</v>
       </c>
@@ -5577,25 +6375,28 @@
         <v>1998</v>
       </c>
       <c r="C103" t="s">
+        <v>388</v>
+      </c>
+      <c r="D103" t="s">
         <v>389</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>390</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>391</v>
       </c>
-      <c r="F103" t="s">
-        <v>392</v>
-      </c>
       <c r="G103" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H103" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I103" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>536</v>
       </c>
@@ -5603,25 +6404,28 @@
         <v>1998</v>
       </c>
       <c r="C104" t="s">
+        <v>392</v>
+      </c>
+      <c r="D104" t="s">
+        <v>657</v>
+      </c>
+      <c r="E104" t="s">
         <v>393</v>
       </c>
-      <c r="D104" t="s">
-        <v>659</v>
-      </c>
-      <c r="E104" t="s">
-        <v>394</v>
-      </c>
       <c r="F104" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G104" t="s">
+        <v>623</v>
+      </c>
+      <c r="H104" t="s">
         <v>625</v>
       </c>
-      <c r="H104" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>539</v>
       </c>
@@ -5629,25 +6433,28 @@
         <v>1999</v>
       </c>
       <c r="C105" t="s">
+        <v>394</v>
+      </c>
+      <c r="D105" t="s">
         <v>395</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>396</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>397</v>
       </c>
-      <c r="F105" t="s">
-        <v>398</v>
-      </c>
       <c r="G105" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H105" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I105" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>540</v>
       </c>
@@ -5655,25 +6462,28 @@
         <v>1999</v>
       </c>
       <c r="C106" t="s">
+        <v>398</v>
+      </c>
+      <c r="D106" t="s">
         <v>399</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>400</v>
       </c>
-      <c r="E106" t="s">
-        <v>401</v>
-      </c>
       <c r="F106" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G106" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H106" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I106" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>543</v>
       </c>
@@ -5681,25 +6491,28 @@
         <v>2001</v>
       </c>
       <c r="C107" t="s">
+        <v>401</v>
+      </c>
+      <c r="D107" t="s">
         <v>402</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>403</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>404</v>
       </c>
-      <c r="F107" t="s">
-        <v>405</v>
-      </c>
       <c r="G107" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H107" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I107" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>546</v>
       </c>
@@ -5707,25 +6520,28 @@
         <v>2001</v>
       </c>
       <c r="C108" t="s">
+        <v>405</v>
+      </c>
+      <c r="D108" t="s">
         <v>406</v>
-      </c>
-      <c r="D108" t="s">
-        <v>407</v>
       </c>
       <c r="E108" t="s">
         <v>106</v>
       </c>
       <c r="F108" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G108" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H108" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I108" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>548</v>
       </c>
@@ -5733,25 +6549,28 @@
         <v>2002</v>
       </c>
       <c r="C109" t="s">
+        <v>408</v>
+      </c>
+      <c r="D109" t="s">
         <v>409</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>410</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>411</v>
       </c>
-      <c r="F109" t="s">
-        <v>412</v>
-      </c>
       <c r="G109" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H109" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I109" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>553</v>
       </c>
@@ -5759,25 +6578,28 @@
         <v>2002</v>
       </c>
       <c r="C110" t="s">
+        <v>412</v>
+      </c>
+      <c r="D110" t="s">
         <v>413</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>414</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>415</v>
       </c>
-      <c r="F110" t="s">
-        <v>416</v>
-      </c>
       <c r="G110" t="s">
+        <v>623</v>
+      </c>
+      <c r="H110" t="s">
         <v>625</v>
       </c>
-      <c r="H110" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>554</v>
       </c>
@@ -5785,25 +6607,28 @@
         <v>2003</v>
       </c>
       <c r="C111" t="s">
+        <v>416</v>
+      </c>
+      <c r="D111" t="s">
         <v>417</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>418</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>419</v>
       </c>
-      <c r="F111" t="s">
-        <v>420</v>
-      </c>
       <c r="G111" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H111" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I111" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>556</v>
       </c>
@@ -5811,25 +6636,28 @@
         <v>2004</v>
       </c>
       <c r="C112" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" t="s">
         <v>421</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>422</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>423</v>
       </c>
-      <c r="F112" t="s">
-        <v>424</v>
-      </c>
       <c r="G112" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H112" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I112" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>558</v>
       </c>
@@ -5837,25 +6665,28 @@
         <v>2004</v>
       </c>
       <c r="C113" t="s">
+        <v>424</v>
+      </c>
+      <c r="D113" t="s">
         <v>425</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>426</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>427</v>
       </c>
-      <c r="F113" t="s">
-        <v>428</v>
-      </c>
       <c r="G113" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H113" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I113" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>559</v>
       </c>
@@ -5863,25 +6694,28 @@
         <v>2004</v>
       </c>
       <c r="C114" t="s">
+        <v>428</v>
+      </c>
+      <c r="D114" t="s">
         <v>429</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E114" t="s">
         <v>430</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>431</v>
       </c>
-      <c r="F114" t="s">
-        <v>432</v>
-      </c>
       <c r="G114" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H114" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I114" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>565</v>
       </c>
@@ -5889,25 +6723,28 @@
         <v>2005</v>
       </c>
       <c r="C115" t="s">
+        <v>432</v>
+      </c>
+      <c r="D115" t="s">
         <v>433</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E115" t="s">
         <v>434</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>435</v>
       </c>
-      <c r="F115" t="s">
-        <v>436</v>
-      </c>
       <c r="G115" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H115" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I115" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>566</v>
       </c>
@@ -5915,25 +6752,28 @@
         <v>2005</v>
       </c>
       <c r="C116" t="s">
+        <v>436</v>
+      </c>
+      <c r="D116" t="s">
         <v>437</v>
-      </c>
-      <c r="D116" t="s">
-        <v>438</v>
       </c>
       <c r="E116" t="s">
         <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G116" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H116" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I116" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>567</v>
       </c>
@@ -5941,25 +6781,28 @@
         <v>2005</v>
       </c>
       <c r="C117" t="s">
+        <v>439</v>
+      </c>
+      <c r="D117" t="s">
         <v>440</v>
-      </c>
-      <c r="D117" t="s">
-        <v>441</v>
       </c>
       <c r="E117" t="s">
         <v>52</v>
       </c>
       <c r="F117" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G117" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H117" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I117" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>568</v>
       </c>
@@ -5967,25 +6810,28 @@
         <v>2005</v>
       </c>
       <c r="C118" t="s">
+        <v>442</v>
+      </c>
+      <c r="D118" t="s">
         <v>443</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
         <v>444</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>445</v>
       </c>
-      <c r="F118" t="s">
-        <v>446</v>
-      </c>
       <c r="G118" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H118" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I118" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>570</v>
       </c>
@@ -5993,25 +6839,28 @@
         <v>2006</v>
       </c>
       <c r="C119" t="s">
+        <v>446</v>
+      </c>
+      <c r="D119" t="s">
         <v>447</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>378</v>
+      </c>
+      <c r="F119" t="s">
         <v>448</v>
       </c>
-      <c r="E119" t="s">
-        <v>379</v>
-      </c>
-      <c r="F119" t="s">
-        <v>449</v>
-      </c>
       <c r="G119" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H119" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I119" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>572</v>
       </c>
@@ -6019,25 +6868,28 @@
         <v>2006</v>
       </c>
       <c r="C120" t="s">
+        <v>449</v>
+      </c>
+      <c r="D120" t="s">
         <v>450</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
         <v>451</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>452</v>
       </c>
-      <c r="F120" t="s">
-        <v>453</v>
-      </c>
       <c r="G120" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H120" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I120" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>574</v>
       </c>
@@ -6045,25 +6897,28 @@
         <v>2006</v>
       </c>
       <c r="C121" t="s">
+        <v>453</v>
+      </c>
+      <c r="D121" t="s">
         <v>454</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
         <v>455</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>456</v>
       </c>
-      <c r="F121" t="s">
-        <v>457</v>
-      </c>
       <c r="G121" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H121" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I121" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>576</v>
       </c>
@@ -6071,25 +6926,28 @@
         <v>2006</v>
       </c>
       <c r="C122" t="s">
+        <v>457</v>
+      </c>
+      <c r="D122" t="s">
+        <v>789</v>
+      </c>
+      <c r="E122" t="s">
         <v>458</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>459</v>
       </c>
-      <c r="E122" t="s">
-        <v>460</v>
-      </c>
-      <c r="F122" t="s">
-        <v>461</v>
-      </c>
       <c r="G122" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H122" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I122" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>578</v>
       </c>
@@ -6097,25 +6955,28 @@
         <v>2007</v>
       </c>
       <c r="C123" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" t="s">
+        <v>461</v>
+      </c>
+      <c r="E123" t="s">
         <v>462</v>
       </c>
-      <c r="D123" t="s">
+      <c r="F123" t="s">
         <v>463</v>
       </c>
-      <c r="E123" t="s">
-        <v>464</v>
-      </c>
-      <c r="F123" t="s">
-        <v>465</v>
-      </c>
       <c r="G123" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H123" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I123" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>579</v>
       </c>
@@ -6123,25 +6984,28 @@
         <v>2007</v>
       </c>
       <c r="C124" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D124" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E124" t="s">
         <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G124" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H124" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I124" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>581</v>
       </c>
@@ -6149,25 +7013,28 @@
         <v>2007</v>
       </c>
       <c r="C125" t="s">
+        <v>467</v>
+      </c>
+      <c r="D125" t="s">
+        <v>468</v>
+      </c>
+      <c r="E125" t="s">
         <v>469</v>
       </c>
-      <c r="D125" t="s">
+      <c r="F125" t="s">
         <v>470</v>
       </c>
-      <c r="E125" t="s">
-        <v>471</v>
-      </c>
-      <c r="F125" t="s">
-        <v>472</v>
-      </c>
       <c r="G125" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H125" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I125" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>582</v>
       </c>
@@ -6175,25 +7042,28 @@
         <v>2008</v>
       </c>
       <c r="C126" t="s">
+        <v>471</v>
+      </c>
+      <c r="D126" t="s">
+        <v>472</v>
+      </c>
+      <c r="E126" t="s">
         <v>473</v>
       </c>
-      <c r="D126" t="s">
-        <v>474</v>
-      </c>
-      <c r="E126" t="s">
-        <v>475</v>
-      </c>
       <c r="F126" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G126" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H126" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I126" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>583</v>
       </c>
@@ -6201,25 +7071,28 @@
         <v>2008</v>
       </c>
       <c r="C127" t="s">
+        <v>474</v>
+      </c>
+      <c r="D127" t="s">
+        <v>475</v>
+      </c>
+      <c r="E127" t="s">
         <v>476</v>
       </c>
-      <c r="D127" t="s">
-        <v>477</v>
-      </c>
-      <c r="E127" t="s">
-        <v>478</v>
-      </c>
       <c r="F127" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G127" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H127" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I127" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>586</v>
       </c>
@@ -6227,25 +7100,28 @@
         <v>2008</v>
       </c>
       <c r="C128" t="s">
+        <v>477</v>
+      </c>
+      <c r="D128" t="s">
+        <v>478</v>
+      </c>
+      <c r="E128" t="s">
         <v>479</v>
       </c>
-      <c r="D128" t="s">
+      <c r="F128" t="s">
         <v>480</v>
       </c>
-      <c r="E128" t="s">
-        <v>481</v>
-      </c>
-      <c r="F128" t="s">
-        <v>482</v>
-      </c>
       <c r="G128" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H128" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I128" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>588</v>
       </c>
@@ -6253,25 +7129,28 @@
         <v>2008</v>
       </c>
       <c r="C129" t="s">
+        <v>481</v>
+      </c>
+      <c r="D129" t="s">
+        <v>482</v>
+      </c>
+      <c r="E129" t="s">
         <v>483</v>
       </c>
-      <c r="D129" t="s">
+      <c r="F129" t="s">
         <v>484</v>
       </c>
-      <c r="E129" t="s">
-        <v>485</v>
-      </c>
-      <c r="F129" t="s">
-        <v>486</v>
-      </c>
       <c r="G129" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H129" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I129" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>589</v>
       </c>
@@ -6279,25 +7158,28 @@
         <v>2008</v>
       </c>
       <c r="C130" t="s">
+        <v>485</v>
+      </c>
+      <c r="D130" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" t="s">
         <v>487</v>
       </c>
-      <c r="D130" t="s">
+      <c r="F130" t="s">
         <v>488</v>
       </c>
-      <c r="E130" t="s">
-        <v>489</v>
-      </c>
-      <c r="F130" t="s">
-        <v>490</v>
-      </c>
       <c r="G130" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H130" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I130" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>592</v>
       </c>
@@ -6305,25 +7187,28 @@
         <v>2009</v>
       </c>
       <c r="C131" t="s">
+        <v>489</v>
+      </c>
+      <c r="D131" t="s">
+        <v>490</v>
+      </c>
+      <c r="E131" t="s">
         <v>491</v>
       </c>
-      <c r="D131" t="s">
+      <c r="F131" t="s">
         <v>492</v>
       </c>
-      <c r="E131" t="s">
-        <v>493</v>
-      </c>
-      <c r="F131" t="s">
-        <v>494</v>
-      </c>
       <c r="G131" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H131" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I131" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>593</v>
       </c>
@@ -6331,25 +7216,28 @@
         <v>2009</v>
       </c>
       <c r="C132" t="s">
+        <v>493</v>
+      </c>
+      <c r="D132" t="s">
+        <v>494</v>
+      </c>
+      <c r="E132" t="s">
         <v>495</v>
       </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>496</v>
       </c>
-      <c r="E132" t="s">
-        <v>497</v>
-      </c>
-      <c r="F132" t="s">
-        <v>498</v>
-      </c>
       <c r="G132" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H132" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I132" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>594</v>
       </c>
@@ -6357,25 +7245,28 @@
         <v>2009</v>
       </c>
       <c r="C133" t="s">
+        <v>497</v>
+      </c>
+      <c r="D133" t="s">
+        <v>498</v>
+      </c>
+      <c r="E133" t="s">
         <v>499</v>
       </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>500</v>
       </c>
-      <c r="E133" t="s">
-        <v>501</v>
-      </c>
-      <c r="F133" t="s">
-        <v>502</v>
-      </c>
       <c r="G133" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H133" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I133" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>597</v>
       </c>
@@ -6383,25 +7274,28 @@
         <v>2010</v>
       </c>
       <c r="C134" t="s">
+        <v>501</v>
+      </c>
+      <c r="D134" t="s">
+        <v>502</v>
+      </c>
+      <c r="E134" t="s">
         <v>503</v>
       </c>
-      <c r="D134" t="s">
+      <c r="F134" t="s">
         <v>504</v>
       </c>
-      <c r="E134" t="s">
-        <v>505</v>
-      </c>
-      <c r="F134" t="s">
-        <v>506</v>
-      </c>
       <c r="G134" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H134" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I134" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>598</v>
       </c>
@@ -6409,25 +7303,28 @@
         <v>2010</v>
       </c>
       <c r="C135" t="s">
+        <v>505</v>
+      </c>
+      <c r="D135" t="s">
+        <v>506</v>
+      </c>
+      <c r="E135" t="s">
+        <v>503</v>
+      </c>
+      <c r="F135" t="s">
         <v>507</v>
       </c>
-      <c r="D135" t="s">
-        <v>508</v>
-      </c>
-      <c r="E135" t="s">
-        <v>505</v>
-      </c>
-      <c r="F135" t="s">
-        <v>509</v>
-      </c>
       <c r="G135" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H135" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I135" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>602</v>
       </c>
@@ -6435,25 +7332,28 @@
         <v>2010</v>
       </c>
       <c r="C136" t="s">
+        <v>508</v>
+      </c>
+      <c r="D136" t="s">
+        <v>509</v>
+      </c>
+      <c r="E136" t="s">
         <v>510</v>
       </c>
-      <c r="D136" t="s">
-        <v>511</v>
-      </c>
-      <c r="E136" t="s">
-        <v>512</v>
-      </c>
       <c r="F136" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G136" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H136" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I136" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>604</v>
       </c>
@@ -6461,25 +7361,28 @@
         <v>2011</v>
       </c>
       <c r="C137" t="s">
+        <v>511</v>
+      </c>
+      <c r="D137" t="s">
+        <v>512</v>
+      </c>
+      <c r="E137" t="s">
         <v>513</v>
       </c>
-      <c r="D137" t="s">
-        <v>514</v>
-      </c>
-      <c r="E137" t="s">
-        <v>515</v>
-      </c>
       <c r="F137" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G137" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H137" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I137" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>610</v>
       </c>
@@ -6487,25 +7390,28 @@
         <v>2012</v>
       </c>
       <c r="C138" t="s">
+        <v>514</v>
+      </c>
+      <c r="D138" t="s">
+        <v>515</v>
+      </c>
+      <c r="E138" t="s">
         <v>516</v>
       </c>
-      <c r="D138" t="s">
-        <v>517</v>
-      </c>
-      <c r="E138" t="s">
-        <v>518</v>
-      </c>
       <c r="F138" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G138" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H138" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I138" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>617</v>
       </c>
@@ -6513,25 +7419,28 @@
         <v>2013</v>
       </c>
       <c r="C139" t="s">
+        <v>517</v>
+      </c>
+      <c r="D139" t="s">
+        <v>518</v>
+      </c>
+      <c r="E139" t="s">
         <v>519</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>520</v>
       </c>
-      <c r="E139" t="s">
-        <v>521</v>
-      </c>
-      <c r="F139" t="s">
-        <v>522</v>
-      </c>
       <c r="G139" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H139" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I139" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>620</v>
       </c>
@@ -6539,25 +7448,28 @@
         <v>2013</v>
       </c>
       <c r="C140" t="s">
+        <v>521</v>
+      </c>
+      <c r="D140" t="s">
+        <v>522</v>
+      </c>
+      <c r="E140" t="s">
         <v>523</v>
       </c>
-      <c r="D140" t="s">
-        <v>524</v>
-      </c>
-      <c r="E140" t="s">
-        <v>525</v>
-      </c>
       <c r="F140" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G140" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H140" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I140" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>621</v>
       </c>
@@ -6565,25 +7477,28 @@
         <v>2013</v>
       </c>
       <c r="C141" t="s">
+        <v>524</v>
+      </c>
+      <c r="D141" t="s">
+        <v>525</v>
+      </c>
+      <c r="E141" t="s">
         <v>526</v>
       </c>
-      <c r="D141" t="s">
+      <c r="F141" t="s">
         <v>527</v>
       </c>
-      <c r="E141" t="s">
-        <v>528</v>
-      </c>
-      <c r="F141" t="s">
-        <v>529</v>
-      </c>
       <c r="G141" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H141" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I141" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>622</v>
       </c>
@@ -6591,25 +7506,28 @@
         <v>2013</v>
       </c>
       <c r="C142" t="s">
+        <v>528</v>
+      </c>
+      <c r="D142" t="s">
+        <v>529</v>
+      </c>
+      <c r="E142" t="s">
+        <v>451</v>
+      </c>
+      <c r="F142" t="s">
         <v>530</v>
       </c>
-      <c r="D142" t="s">
-        <v>531</v>
-      </c>
-      <c r="E142" t="s">
-        <v>452</v>
-      </c>
-      <c r="F142" t="s">
-        <v>532</v>
-      </c>
       <c r="G142" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H142" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I142" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>623</v>
       </c>
@@ -6617,25 +7535,28 @@
         <v>2013</v>
       </c>
       <c r="C143" t="s">
+        <v>531</v>
+      </c>
+      <c r="D143" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143" t="s">
         <v>533</v>
       </c>
-      <c r="D143" t="s">
+      <c r="F143" t="s">
         <v>534</v>
       </c>
-      <c r="E143" t="s">
-        <v>535</v>
-      </c>
-      <c r="F143" t="s">
-        <v>536</v>
-      </c>
       <c r="G143" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H143" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I143" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>625</v>
       </c>
@@ -6643,25 +7564,28 @@
         <v>2014</v>
       </c>
       <c r="C144" t="s">
+        <v>535</v>
+      </c>
+      <c r="D144" t="s">
+        <v>536</v>
+      </c>
+      <c r="E144" t="s">
         <v>537</v>
       </c>
-      <c r="D144" t="s">
+      <c r="F144" t="s">
         <v>538</v>
       </c>
-      <c r="E144" t="s">
-        <v>539</v>
-      </c>
-      <c r="F144" t="s">
-        <v>540</v>
-      </c>
       <c r="G144" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H144" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I144" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>626</v>
       </c>
@@ -6669,25 +7593,28 @@
         <v>2014</v>
       </c>
       <c r="C145" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D145" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E145" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F145" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G145" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H145" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I145" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>637</v>
       </c>
@@ -6695,25 +7622,28 @@
         <v>2015</v>
       </c>
       <c r="C146" t="s">
+        <v>541</v>
+      </c>
+      <c r="D146" t="s">
+        <v>542</v>
+      </c>
+      <c r="E146" t="s">
         <v>543</v>
       </c>
-      <c r="D146" t="s">
+      <c r="F146" t="s">
         <v>544</v>
       </c>
-      <c r="E146" t="s">
-        <v>545</v>
-      </c>
-      <c r="F146" t="s">
-        <v>546</v>
-      </c>
       <c r="G146" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H146" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I146" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>640</v>
       </c>
@@ -6721,25 +7651,28 @@
         <v>2015</v>
       </c>
       <c r="C147" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D147" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E147" t="s">
         <v>106</v>
       </c>
       <c r="F147" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="G147" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H147" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I147" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>643</v>
       </c>
@@ -6747,25 +7680,28 @@
         <v>2016</v>
       </c>
       <c r="C148" t="s">
+        <v>548</v>
+      </c>
+      <c r="D148" t="s">
+        <v>549</v>
+      </c>
+      <c r="E148" t="s">
         <v>550</v>
       </c>
-      <c r="D148" t="s">
+      <c r="F148" t="s">
         <v>551</v>
       </c>
-      <c r="E148" t="s">
-        <v>552</v>
-      </c>
-      <c r="F148" t="s">
-        <v>553</v>
-      </c>
       <c r="G148" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H148" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I148" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>644</v>
       </c>
@@ -6773,25 +7709,28 @@
         <v>2016</v>
       </c>
       <c r="C149" t="s">
+        <v>552</v>
+      </c>
+      <c r="D149" t="s">
+        <v>553</v>
+      </c>
+      <c r="E149" t="s">
         <v>554</v>
       </c>
-      <c r="D149" t="s">
+      <c r="F149" t="s">
         <v>555</v>
       </c>
-      <c r="E149" t="s">
-        <v>556</v>
-      </c>
-      <c r="F149" t="s">
-        <v>557</v>
-      </c>
       <c r="G149" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H149" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I149" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>646</v>
       </c>
@@ -6799,25 +7738,28 @@
         <v>2016</v>
       </c>
       <c r="C150" t="s">
+        <v>556</v>
+      </c>
+      <c r="D150" t="s">
+        <v>557</v>
+      </c>
+      <c r="E150" t="s">
+        <v>240</v>
+      </c>
+      <c r="F150" t="s">
         <v>558</v>
       </c>
-      <c r="D150" t="s">
-        <v>559</v>
-      </c>
-      <c r="E150" t="s">
-        <v>241</v>
-      </c>
-      <c r="F150" t="s">
-        <v>560</v>
-      </c>
       <c r="G150" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H150" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I150" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>647</v>
       </c>
@@ -6825,25 +7767,28 @@
         <v>2016</v>
       </c>
       <c r="C151" t="s">
+        <v>559</v>
+      </c>
+      <c r="D151" t="s">
+        <v>560</v>
+      </c>
+      <c r="E151" t="s">
         <v>561</v>
       </c>
-      <c r="D151" t="s">
+      <c r="F151" t="s">
         <v>562</v>
       </c>
-      <c r="E151" t="s">
-        <v>563</v>
-      </c>
-      <c r="F151" t="s">
-        <v>564</v>
-      </c>
       <c r="G151" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H151" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I151" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>651</v>
       </c>
@@ -6851,25 +7796,28 @@
         <v>2016</v>
       </c>
       <c r="C152" t="s">
+        <v>563</v>
+      </c>
+      <c r="D152" t="s">
+        <v>564</v>
+      </c>
+      <c r="E152" t="s">
         <v>565</v>
       </c>
-      <c r="D152" t="s">
+      <c r="F152" t="s">
         <v>566</v>
       </c>
-      <c r="E152" t="s">
-        <v>567</v>
-      </c>
-      <c r="F152" t="s">
-        <v>568</v>
-      </c>
       <c r="G152" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H152" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I152" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>652</v>
       </c>
@@ -6877,25 +7825,28 @@
         <v>2016</v>
       </c>
       <c r="C153" t="s">
+        <v>567</v>
+      </c>
+      <c r="D153" t="s">
+        <v>568</v>
+      </c>
+      <c r="E153" t="s">
         <v>569</v>
       </c>
-      <c r="D153" t="s">
+      <c r="F153" t="s">
         <v>570</v>
       </c>
-      <c r="E153" t="s">
-        <v>571</v>
-      </c>
-      <c r="F153" t="s">
-        <v>572</v>
-      </c>
       <c r="G153" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H153" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I153" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>654</v>
       </c>
@@ -6903,25 +7854,28 @@
         <v>2017</v>
       </c>
       <c r="C154" t="s">
+        <v>571</v>
+      </c>
+      <c r="D154" t="s">
+        <v>572</v>
+      </c>
+      <c r="E154" t="s">
         <v>573</v>
       </c>
-      <c r="D154" t="s">
+      <c r="F154" t="s">
         <v>574</v>
       </c>
-      <c r="E154" t="s">
-        <v>575</v>
-      </c>
-      <c r="F154" t="s">
-        <v>576</v>
-      </c>
       <c r="G154" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H154" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I154" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>658</v>
       </c>
@@ -6929,25 +7883,28 @@
         <v>2018</v>
       </c>
       <c r="C155" t="s">
+        <v>575</v>
+      </c>
+      <c r="D155" t="s">
+        <v>576</v>
+      </c>
+      <c r="E155" t="s">
         <v>577</v>
       </c>
-      <c r="D155" t="s">
+      <c r="F155" t="s">
         <v>578</v>
       </c>
-      <c r="E155" t="s">
-        <v>579</v>
-      </c>
-      <c r="F155" t="s">
-        <v>580</v>
-      </c>
       <c r="G155" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H155" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I155" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>661</v>
       </c>
@@ -6955,25 +7912,28 @@
         <v>2018</v>
       </c>
       <c r="C156" t="s">
+        <v>579</v>
+      </c>
+      <c r="D156" t="s">
+        <v>580</v>
+      </c>
+      <c r="E156" t="s">
         <v>581</v>
       </c>
-      <c r="D156" t="s">
-        <v>582</v>
-      </c>
-      <c r="E156" t="s">
-        <v>583</v>
-      </c>
       <c r="F156" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="G156" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H156" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I156" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>667</v>
       </c>
@@ -6981,25 +7941,28 @@
         <v>2019</v>
       </c>
       <c r="C157" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D157" t="s">
+        <v>582</v>
+      </c>
+      <c r="E157" t="s">
+        <v>583</v>
+      </c>
+      <c r="F157" t="s">
         <v>584</v>
       </c>
-      <c r="E157" t="s">
-        <v>585</v>
-      </c>
-      <c r="F157" t="s">
-        <v>586</v>
-      </c>
       <c r="G157" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H157" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I157" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>675</v>
       </c>
@@ -7007,25 +7970,28 @@
         <v>2021</v>
       </c>
       <c r="C158" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D158" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E158" t="s">
         <v>210</v>
       </c>
       <c r="F158" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G158" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H158" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I158" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>679</v>
       </c>
@@ -7033,25 +7999,28 @@
         <v>2022</v>
       </c>
       <c r="C159" t="s">
+        <v>588</v>
+      </c>
+      <c r="D159" t="s">
+        <v>589</v>
+      </c>
+      <c r="E159" t="s">
         <v>590</v>
       </c>
-      <c r="D159" t="s">
+      <c r="F159" t="s">
         <v>591</v>
       </c>
-      <c r="E159" t="s">
-        <v>592</v>
-      </c>
-      <c r="F159" t="s">
-        <v>593</v>
-      </c>
       <c r="G159" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H159" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I159" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>680</v>
       </c>
@@ -7059,25 +8028,28 @@
         <v>2022</v>
       </c>
       <c r="C160" t="s">
+        <v>592</v>
+      </c>
+      <c r="D160" t="s">
+        <v>593</v>
+      </c>
+      <c r="E160" t="s">
         <v>594</v>
       </c>
-      <c r="D160" t="s">
+      <c r="F160" t="s">
         <v>595</v>
       </c>
-      <c r="E160" t="s">
-        <v>596</v>
-      </c>
-      <c r="F160" t="s">
-        <v>597</v>
-      </c>
       <c r="G160" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H160" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I160" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>682</v>
       </c>
@@ -7085,25 +8057,28 @@
         <v>2022</v>
       </c>
       <c r="C161" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D161" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E161" t="s">
         <v>210</v>
       </c>
       <c r="F161" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G161" t="s">
+        <v>623</v>
+      </c>
+      <c r="H161" t="s">
         <v>625</v>
       </c>
-      <c r="H161" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I161" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>683</v>
       </c>
@@ -7111,25 +8086,28 @@
         <v>2022</v>
       </c>
       <c r="C162" t="s">
+        <v>599</v>
+      </c>
+      <c r="D162" t="s">
+        <v>600</v>
+      </c>
+      <c r="E162" t="s">
+        <v>569</v>
+      </c>
+      <c r="F162" t="s">
         <v>601</v>
       </c>
-      <c r="D162" t="s">
-        <v>602</v>
-      </c>
-      <c r="E162" t="s">
-        <v>571</v>
-      </c>
-      <c r="F162" t="s">
-        <v>603</v>
-      </c>
       <c r="G162" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H162" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I162" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>684</v>
       </c>
@@ -7137,25 +8115,28 @@
         <v>2023</v>
       </c>
       <c r="C163" t="s">
+        <v>602</v>
+      </c>
+      <c r="D163" t="s">
+        <v>603</v>
+      </c>
+      <c r="E163" t="s">
+        <v>540</v>
+      </c>
+      <c r="F163" t="s">
         <v>604</v>
       </c>
-      <c r="D163" t="s">
-        <v>605</v>
-      </c>
-      <c r="E163" t="s">
-        <v>542</v>
-      </c>
-      <c r="F163" t="s">
-        <v>606</v>
-      </c>
       <c r="G163" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H163" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I163" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>686</v>
       </c>
@@ -7163,25 +8144,28 @@
         <v>2023</v>
       </c>
       <c r="C164" t="s">
+        <v>605</v>
+      </c>
+      <c r="D164" t="s">
+        <v>606</v>
+      </c>
+      <c r="E164" t="s">
         <v>607</v>
       </c>
-      <c r="D164" t="s">
+      <c r="F164" t="s">
         <v>608</v>
       </c>
-      <c r="E164" t="s">
-        <v>609</v>
-      </c>
-      <c r="F164" t="s">
-        <v>610</v>
-      </c>
       <c r="G164" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H164" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+      <c r="I164" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>687</v>
       </c>
@@ -7189,25 +8173,28 @@
         <v>2023</v>
       </c>
       <c r="C165" t="s">
+        <v>609</v>
+      </c>
+      <c r="D165" t="s">
+        <v>610</v>
+      </c>
+      <c r="E165" t="s">
         <v>611</v>
       </c>
-      <c r="D165" t="s">
+      <c r="F165" t="s">
         <v>612</v>
       </c>
-      <c r="E165" t="s">
-        <v>613</v>
-      </c>
-      <c r="F165" t="s">
-        <v>614</v>
-      </c>
       <c r="G165" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H165" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+        <v>625</v>
+      </c>
+      <c r="I165" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>692</v>
       </c>
@@ -7215,16 +8202,19 @@
         <v>2016</v>
       </c>
       <c r="C166" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D166" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G166" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="H166" t="s">
-        <v>619</v>
+        <v>617</v>
+      </c>
+      <c r="I166" t="s">
+        <v>833</v>
       </c>
     </row>
   </sheetData>
